--- a/downloadlist.xlsx
+++ b/downloadlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://xinandaxue-my.sharepoint.cn/personal/zdc6666_office365_swu_edu_cn/Documents/天翼云盘同步盘/python学习/python脚本/m3u8download/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{250D6881-CD31-4142-B9C2-2AC2A5E418D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD232D5D-A5ED-4F2C-919F-5CB1CBB1EFA5}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{250D6881-CD31-4142-B9C2-2AC2A5E418D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3E90A0C-C189-4BF8-9398-79826E6763D9}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>下载保存的文件夹名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,14 +35,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://v6.cdtlas.com/20220801/HPeWT1KN/hls/index.m3u8</t>
-  </si>
-  <si>
     <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>test2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://v6XXXX/HPeWT1KN/hls/index.m3u8</t>
+  </si>
+  <si>
+    <t>https://v6XXXX/HPeWT1KN/hls/index.m3u8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -50,7 +54,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,8 +70,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="9.8000000000000007"/>
-      <color rgb="FF6A8759"/>
+      <color rgb="FF9876AA"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
@@ -89,17 +102,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -380,13 +398,13 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.1"/>
   <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="27.125" customWidth="1"/>
+    <col min="1" max="1" width="42.796875" customWidth="1"/>
+    <col min="2" max="2" width="27.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -399,23 +417,26 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
+      <c r="A3" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{EBC80AB1-8AC8-4771-B329-0C0595E3549F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>